--- a/boatIntensifyConfig.xlsx
+++ b/boatIntensifyConfig.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -38,16 +38,49 @@
     <t>Parameter2</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>fishRod</t>
   </si>
   <si>
     <t>fishValue</t>
   </si>
   <si>
+    <t>Add 10% fish value</t>
+  </si>
+  <si>
+    <t>Add 20% fish value</t>
+  </si>
+  <si>
+    <t>already be the max level</t>
+  </si>
+  <si>
     <t>fishFood</t>
   </si>
   <si>
     <t>fishRate</t>
+  </si>
+  <si>
+    <t>Add 10% fish refresh rate</t>
+  </si>
+  <si>
+    <t>Add 20% fish refresh rate</t>
+  </si>
+  <si>
+    <t>Add 30% fish refresh rate</t>
+  </si>
+  <si>
+    <t>Add 5% fish value</t>
+  </si>
+  <si>
+    <t>Add 15% fish value</t>
   </si>
 </sst>
 </file>
@@ -106,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -123,6 +156,51 @@
       </right>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -225,7 +303,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -235,13 +313,19 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -257,6 +341,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1345,14 +1441,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1380,784 +1476,993 @@
       <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="6">
         <v>10001</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="5">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="9">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F4" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="13">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F5" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="13">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="13">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D7" s="16">
+        <v>4</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F7" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="13">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D8" s="16">
+        <v>5</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F8" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="13">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" s="16">
+        <v>6</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F9" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="13">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D10" s="16">
+        <v>7</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F10" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="13">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16">
         <v>8</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F2" t="s" s="5">
+      <c r="E11" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F11" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="13">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D12" s="16">
         <v>9</v>
       </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="E12" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F12" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="13">
+        <v>10011</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="7">
-        <v>10002</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="9">
+      <c r="E13" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F13" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="13">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F14" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="13">
+        <v>10013</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F15" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="13">
+        <v>10014</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F16" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="13">
+        <v>10015</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D17" s="16">
+        <v>3</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F17" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="13">
+        <v>10016</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D18" s="16">
+        <v>4</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F18" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="13">
+        <v>10017</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16">
+        <v>5</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F19" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="13">
+        <v>10018</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D20" s="16">
+        <v>6</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F20" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="13">
+        <v>10019</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D21" s="16">
+        <v>7</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F21" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="13">
+        <v>10020</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D22" s="16">
         <v>8</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E22" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F22" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="13">
+        <v>10021</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D23" s="16">
+        <v>9</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F23" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="13">
+        <v>10022</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D24" s="16">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F24" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="13">
+        <v>10023</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F25" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="13">
+        <v>10024</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F26" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="13">
+        <v>10025</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D27" s="16">
         <v>2</v>
       </c>
-      <c r="E3" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F3" t="s" s="9">
+      <c r="E27" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F27" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="13">
+        <v>10026</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D28" s="16">
+        <v>3</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F28" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1</v>
+      </c>
+      <c r="H28" s="16">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="13">
+        <v>10027</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D29" s="16">
+        <v>4</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F29" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="13">
+        <v>10028</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D30" s="16">
+        <v>5</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F30" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1</v>
+      </c>
+      <c r="H30" s="16">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="13">
+        <v>10029</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D31" s="16">
+        <v>6</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F31" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G31" s="16">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="13">
+        <v>10030</v>
+      </c>
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D32" s="16">
+        <v>7</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F32" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G32" s="16">
+        <v>1</v>
+      </c>
+      <c r="H32" s="16">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="13">
+        <v>10031</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D33" s="16">
+        <v>8</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F33" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1</v>
+      </c>
+      <c r="H33" s="16">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s" s="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="13">
+        <v>10032</v>
+      </c>
+      <c r="B34" s="14">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D34" s="16">
         <v>9</v>
       </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="E34" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F34" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1</v>
+      </c>
+      <c r="H34" s="16">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s" s="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="13">
+        <v>10033</v>
+      </c>
+      <c r="B35" s="14">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D35" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
-        <v>10003</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F4" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
-        <v>10004</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F5" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
-        <v>10005</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10">
-        <v>5</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F6" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
-        <v>10006</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D7" s="10">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F7" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
-        <v>10007</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F8" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
-        <v>10008</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F9" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7">
-        <v>10009</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F10" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7">
-        <v>10010</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F11" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7">
-        <v>10011</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F12" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7">
-        <v>10012</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D13" s="10">
-        <v>2</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F13" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7">
-        <v>10013</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10">
-        <v>3</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F14" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7">
-        <v>10014</v>
-      </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F15" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7">
-        <v>10015</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D16" s="10">
-        <v>5</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F16" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7">
-        <v>10016</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D17" s="10">
-        <v>6</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F17" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7">
-        <v>10017</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D18" s="10">
-        <v>7</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F18" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7">
-        <v>10018</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D19" s="10">
-        <v>8</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F19" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7">
-        <v>10019</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D20" s="10">
-        <v>9</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F20" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7">
-        <v>10020</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D21" s="10">
-        <v>10</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F21" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="7">
-        <v>10021</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F22" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="7">
-        <v>10022</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D23" s="10">
-        <v>2</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F23" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="7">
-        <v>10023</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D24" s="10">
-        <v>3</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F24" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="7">
-        <v>10024</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D25" s="10">
-        <v>4</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F25" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="7">
-        <v>10025</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D26" s="10">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F26" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="7">
-        <v>10026</v>
-      </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D27" s="10">
-        <v>6</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F27" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="7">
-        <v>10027</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D28" s="10">
-        <v>7</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F28" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="7">
-        <v>10028</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D29" s="10">
-        <v>8</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F29" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
+      <c r="E35" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F35" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1</v>
+      </c>
+      <c r="H35" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="7">
-        <v>10029</v>
-      </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D30" s="10">
-        <v>9</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F30" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="7">
-        <v>10030</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D31" s="10">
-        <v>10</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F31" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10">
+      <c r="I35" t="s" s="15">
         <v>15</v>
       </c>
     </row>
